--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBE652-ED40-44C2-88A2-A1E2D9E7E3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894BBF0C-652F-4909-BD52-5B5383106185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Mob" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,27 @@
   <si>
     <t>TimeSpan</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$Reward.Group]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상그룹1, 보상그룹2, 보상그룹3</t>
+  </si>
+  <si>
+    <t>보상그룹1, 보상그룹4</t>
+  </si>
+  <si>
+    <t>보상그룹5, 보상그룹6</t>
   </si>
 </sst>
 </file>
@@ -542,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,9 +576,10 @@
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -576,8 +598,11 @@
       <c r="F1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -596,8 +621,11 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -616,8 +644,11 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -636,8 +667,11 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -656,8 +690,11 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -675,6 +712,9 @@
       </c>
       <c r="F6">
         <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C986A-1488-47BC-809A-F61C9FA899F8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,6 +737,7 @@
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894BBF0C-652F-4909-BD52-5B5383106185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D8B65-A9FC-42A4-8D1B-4C441BE19629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +189,14 @@
   </si>
   <si>
     <t>보상그룹5, 보상그룹6</t>
+  </si>
+  <si>
+    <t>Preemptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,16 +590,16 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,22 +607,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -668,7 +668,7 @@
         <v>0.1</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -691,7 +691,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -742,70 +742,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>15</v>

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D8B65-A9FC-42A4-8D1B-4C441BE19629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1DFDE-A4BD-4C1F-A2EB-C498113D91DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Mob" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Reactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,10 +588,11 @@
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -599,10 +612,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,10 +638,13 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -645,10 +664,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -667,11 +689,14 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -690,11 +715,14 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -713,7 +741,10 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1DFDE-A4BD-4C1F-A2EB-C498113D91DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0D0CC-CD68-44F0-97CD-655EC6870495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Mob" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expereicen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,9 +602,10 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -617,8 +630,11 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -643,8 +659,11 @@
       <c r="H2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -669,8 +688,11 @@
       <c r="H3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -695,8 +717,11 @@
       <c r="H4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -721,8 +746,11 @@
       <c r="H5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -746,6 +774,9 @@
       </c>
       <c r="H6" t="s">
         <v>41</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0D0CC-CD68-44F0-97CD-655EC6870495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4EFB3-BCE1-4A63-A73F-EBBA18BA113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Mob" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,15 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상그룹1, 보상그룹2, 보상그룹3</t>
-  </si>
-  <si>
-    <t>보상그룹1, 보상그룹4</t>
-  </si>
-  <si>
-    <t>보상그룹5, 보상그룹6</t>
-  </si>
-  <si>
     <t>Preemptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +212,13 @@
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상그룹1, 보상그룹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상그룹2</t>
   </si>
 </sst>
 </file>
@@ -590,7 +588,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,13 +623,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -654,13 +652,13 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -683,13 +681,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -700,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -715,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -729,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -744,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -758,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -773,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I6">
         <v>10</v>

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4EFB3-BCE1-4A63-A73F-EBBA18BA113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D33FB-EA12-4E12-9683-D19052C8D2C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,22 @@
   </si>
   <si>
     <t>보상그룹2</t>
+  </si>
+  <si>
+    <t>보상그룹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +600,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,7 +608,7 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
@@ -617,19 +629,19 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -637,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -646,19 +658,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -675,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -698,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -713,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -727,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -742,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -756,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>300</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -802,70 +814,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -876,10 +888,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -890,10 +902,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>15</v>

--- a/design/Mob.xlsx
+++ b/design/Mob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D33FB-EA12-4E12-9683-D19052C8D2C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B5F34-0CB8-4026-B302-52951CF7211C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,7 +78,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,11 +130,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,7 +166,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>[$Reward.Group]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preemptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,31 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dungeon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>Expereicen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,35 +198,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZenTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeSpan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rewards</t>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상그룹1, 보상그룹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상그룹2</t>
+  </si>
+  <si>
+    <t>보상그룹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,62 +225,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[$Reward.Group]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preemptive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reactive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expereicen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상그룹1, 보상그룹2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상그룹2</t>
-  </si>
-  <si>
-    <t>보상그룹2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
+    <t>몬스터1.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터2.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터3.스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,14 +612,13 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -626,54 +629,48 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -684,25 +681,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -710,28 +704,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -739,28 +730,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -768,24 +756,21 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
     </row>
@@ -814,70 +799,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -888,10 +873,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -902,10 +887,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>15</v>
